--- a/observations/orbit_plans/mtp013/nomad_mtp013_plan.xlsx
+++ b/observations/orbit_plans/mtp013/nomad_mtp013_plan.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\orbit_plans\mtp013\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406B6404-E412-43DA-A96F-84C8E19F8DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="30960" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="401">
   <si>
     <t>#orbitType</t>
   </si>
@@ -1222,8 +1228,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1260,13 +1266,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1304,7 +1318,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1338,6 +1352,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1372,9 +1387,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1547,14 +1563,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M342"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
+      <selection activeCell="D340" sqref="D340"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1595,7 +1613,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1609,7 +1627,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>14</v>
       </c>
@@ -1620,7 +1638,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1634,7 +1652,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>14</v>
       </c>
@@ -1645,7 +1663,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1659,7 +1677,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1676,7 +1694,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1690,7 +1708,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>14</v>
       </c>
@@ -1701,7 +1719,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -1724,7 +1742,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>14</v>
       </c>
@@ -1735,7 +1753,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5</v>
       </c>
@@ -1758,7 +1776,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>14</v>
       </c>
@@ -1769,7 +1787,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>17</v>
       </c>
@@ -1786,7 +1804,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1797,7 +1815,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5</v>
       </c>
@@ -1807,6 +1825,9 @@
       <c r="C16" t="s">
         <v>39</v>
       </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
       <c r="H16" t="s">
         <v>40</v>
       </c>
@@ -1820,7 +1841,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5</v>
       </c>
@@ -1843,7 +1864,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>14</v>
       </c>
@@ -1854,7 +1875,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>5</v>
       </c>
@@ -1877,7 +1898,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>14</v>
       </c>
@@ -1888,7 +1909,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>17</v>
       </c>
@@ -1905,7 +1926,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>14</v>
       </c>
@@ -1916,7 +1937,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>5</v>
       </c>
@@ -1926,6 +1947,9 @@
       <c r="C23" t="s">
         <v>39</v>
       </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
       <c r="H23" t="s">
         <v>43</v>
       </c>
@@ -1939,7 +1963,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>14</v>
       </c>
@@ -1950,7 +1974,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>5</v>
       </c>
@@ -1973,7 +1997,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>14</v>
       </c>
@@ -1984,7 +2008,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>5</v>
       </c>
@@ -2007,7 +2031,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>14</v>
       </c>
@@ -2018,7 +2042,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>5</v>
       </c>
@@ -2041,7 +2065,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>14</v>
       </c>
@@ -2052,7 +2076,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>5</v>
       </c>
@@ -2075,7 +2099,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>14</v>
       </c>
@@ -2086,7 +2110,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2118,7 +2142,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>14</v>
       </c>
@@ -2129,7 +2153,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2161,7 +2185,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>14</v>
       </c>
@@ -2172,7 +2196,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2204,7 +2228,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>14</v>
       </c>
@@ -2215,7 +2239,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>14</v>
       </c>
@@ -2226,7 +2250,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2258,7 +2282,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1</v>
       </c>
@@ -2290,7 +2314,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>14</v>
       </c>
@@ -2301,7 +2325,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1</v>
       </c>
@@ -2333,7 +2357,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>17</v>
       </c>
@@ -2347,7 +2371,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>14</v>
       </c>
@@ -2358,7 +2382,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2390,7 +2414,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1</v>
       </c>
@@ -2422,7 +2446,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>14</v>
       </c>
@@ -2433,7 +2457,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1</v>
       </c>
@@ -2465,7 +2489,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>14</v>
       </c>
@@ -2476,7 +2500,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>3</v>
       </c>
@@ -2490,7 +2514,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1</v>
       </c>
@@ -2522,7 +2546,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>14</v>
       </c>
@@ -2533,7 +2557,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1</v>
       </c>
@@ -2565,7 +2589,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1</v>
       </c>
@@ -2597,7 +2621,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>14</v>
       </c>
@@ -2608,7 +2632,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>14</v>
       </c>
@@ -2619,7 +2643,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1</v>
       </c>
@@ -2651,7 +2675,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>14</v>
       </c>
@@ -2662,7 +2686,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1</v>
       </c>
@@ -2694,7 +2718,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1</v>
       </c>
@@ -2726,7 +2750,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>14</v>
       </c>
@@ -2737,7 +2761,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>3</v>
       </c>
@@ -2751,7 +2775,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1</v>
       </c>
@@ -2783,7 +2807,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>14</v>
       </c>
@@ -2794,7 +2818,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1</v>
       </c>
@@ -2826,7 +2850,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>17</v>
       </c>
@@ -2840,7 +2864,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>14</v>
       </c>
@@ -2851,7 +2875,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1</v>
       </c>
@@ -2886,7 +2910,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1</v>
       </c>
@@ -2918,7 +2942,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>14</v>
       </c>
@@ -2929,7 +2953,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1</v>
       </c>
@@ -2961,7 +2985,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>14</v>
       </c>
@@ -2972,7 +2996,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>14</v>
       </c>
@@ -2983,7 +3007,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1</v>
       </c>
@@ -3015,7 +3039,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>14</v>
       </c>
@@ -3026,7 +3050,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1</v>
       </c>
@@ -3058,7 +3082,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>14</v>
       </c>
@@ -3069,7 +3093,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1</v>
       </c>
@@ -3101,7 +3125,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>14</v>
       </c>
@@ -3112,7 +3136,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>14</v>
       </c>
@@ -3123,7 +3147,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1</v>
       </c>
@@ -3155,7 +3179,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>14</v>
       </c>
@@ -3166,7 +3190,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1</v>
       </c>
@@ -3198,7 +3222,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1</v>
       </c>
@@ -3230,7 +3254,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>14</v>
       </c>
@@ -3241,7 +3265,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>14</v>
       </c>
@@ -3252,7 +3276,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>3</v>
       </c>
@@ -3266,7 +3290,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>14</v>
       </c>
@@ -3277,7 +3301,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1</v>
       </c>
@@ -3309,7 +3333,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>14</v>
       </c>
@@ -3320,7 +3344,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1</v>
       </c>
@@ -3352,7 +3376,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>14</v>
       </c>
@@ -3363,7 +3387,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>14</v>
       </c>
@@ -3377,7 +3401,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1</v>
       </c>
@@ -3409,7 +3433,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>14</v>
       </c>
@@ -3423,7 +3447,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1</v>
       </c>
@@ -3455,7 +3479,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>14</v>
       </c>
@@ -3466,7 +3490,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1</v>
       </c>
@@ -3501,7 +3525,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>14</v>
       </c>
@@ -3512,7 +3536,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>17</v>
       </c>
@@ -3529,7 +3553,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>14</v>
       </c>
@@ -3540,7 +3564,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1</v>
       </c>
@@ -3572,7 +3596,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1</v>
       </c>
@@ -3604,7 +3628,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>14</v>
       </c>
@@ -3615,7 +3639,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>14</v>
       </c>
@@ -3626,7 +3650,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1</v>
       </c>
@@ -3658,7 +3682,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>14</v>
       </c>
@@ -3669,7 +3693,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1</v>
       </c>
@@ -3704,7 +3728,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1</v>
       </c>
@@ -3739,7 +3763,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>14</v>
       </c>
@@ -3753,7 +3777,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>17</v>
       </c>
@@ -3773,7 +3797,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>14</v>
       </c>
@@ -3784,7 +3808,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1</v>
       </c>
@@ -3816,7 +3840,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>14</v>
       </c>
@@ -3827,7 +3851,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1</v>
       </c>
@@ -3859,7 +3883,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>14</v>
       </c>
@@ -3870,7 +3894,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>14</v>
       </c>
@@ -3881,7 +3905,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1</v>
       </c>
@@ -3916,7 +3940,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1</v>
       </c>
@@ -3948,7 +3972,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>14</v>
       </c>
@@ -3962,7 +3986,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1</v>
       </c>
@@ -3994,7 +4018,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>14</v>
       </c>
@@ -4005,7 +4029,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>3</v>
       </c>
@@ -4022,7 +4046,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>14</v>
       </c>
@@ -4033,7 +4057,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1</v>
       </c>
@@ -4065,7 +4089,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1</v>
       </c>
@@ -4097,7 +4121,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>14</v>
       </c>
@@ -4108,7 +4132,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1</v>
       </c>
@@ -4140,7 +4164,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>14</v>
       </c>
@@ -4151,7 +4175,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>14</v>
       </c>
@@ -4165,7 +4189,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1</v>
       </c>
@@ -4197,7 +4221,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>14</v>
       </c>
@@ -4208,7 +4232,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1</v>
       </c>
@@ -4240,7 +4264,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1</v>
       </c>
@@ -4269,7 +4293,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>17</v>
       </c>
@@ -4286,7 +4310,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>3</v>
       </c>
@@ -4303,7 +4327,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>14</v>
       </c>
@@ -4314,7 +4338,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1</v>
       </c>
@@ -4346,7 +4370,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>14</v>
       </c>
@@ -4357,7 +4381,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1</v>
       </c>
@@ -4389,7 +4413,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>14</v>
       </c>
@@ -4400,7 +4424,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1</v>
       </c>
@@ -4432,7 +4456,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>14</v>
       </c>
@@ -4443,7 +4467,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1</v>
       </c>
@@ -4475,7 +4499,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>14</v>
       </c>
@@ -4489,7 +4513,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1</v>
       </c>
@@ -4518,7 +4542,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>17</v>
       </c>
@@ -4532,7 +4556,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>17</v>
       </c>
@@ -4552,7 +4576,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>14</v>
       </c>
@@ -4563,7 +4587,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1</v>
       </c>
@@ -4595,7 +4619,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1</v>
       </c>
@@ -4627,7 +4651,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>14</v>
       </c>
@@ -4638,7 +4662,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>14</v>
       </c>
@@ -4649,7 +4673,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1</v>
       </c>
@@ -4681,7 +4705,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>14</v>
       </c>
@@ -4695,7 +4719,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1</v>
       </c>
@@ -4727,7 +4751,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1</v>
       </c>
@@ -4759,7 +4783,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>14</v>
       </c>
@@ -4770,7 +4794,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>14</v>
       </c>
@@ -4781,7 +4805,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1</v>
       </c>
@@ -4804,7 +4828,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>14</v>
       </c>
@@ -4818,7 +4842,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>3</v>
       </c>
@@ -4832,7 +4856,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1</v>
       </c>
@@ -4842,6 +4866,9 @@
       <c r="C164" t="s">
         <v>76</v>
       </c>
+      <c r="D164" t="s">
+        <v>3</v>
+      </c>
       <c r="H164" t="s">
         <v>43</v>
       </c>
@@ -4852,7 +4879,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>7</v>
       </c>
@@ -4869,7 +4896,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>14</v>
       </c>
@@ -4880,7 +4907,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1</v>
       </c>
@@ -4903,7 +4930,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1</v>
       </c>
@@ -4913,6 +4940,9 @@
       <c r="C168" t="s">
         <v>98</v>
       </c>
+      <c r="D168" t="s">
+        <v>3</v>
+      </c>
       <c r="G168" t="s">
         <v>6</v>
       </c>
@@ -4926,7 +4956,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>14</v>
       </c>
@@ -4937,7 +4967,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1</v>
       </c>
@@ -4947,6 +4977,9 @@
       <c r="C170" t="s">
         <v>99</v>
       </c>
+      <c r="D170" t="s">
+        <v>3</v>
+      </c>
       <c r="H170" t="s">
         <v>43</v>
       </c>
@@ -4957,7 +4990,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>14</v>
       </c>
@@ -4968,7 +5001,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>14</v>
       </c>
@@ -4979,7 +5012,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>3</v>
       </c>
@@ -4996,7 +5029,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1</v>
       </c>
@@ -5006,6 +5039,9 @@
       <c r="C174" t="s">
         <v>27</v>
       </c>
+      <c r="D174" t="s">
+        <v>3</v>
+      </c>
       <c r="H174" t="s">
         <v>151</v>
       </c>
@@ -5019,7 +5055,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>14</v>
       </c>
@@ -5030,7 +5066,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1</v>
       </c>
@@ -5040,6 +5076,9 @@
       <c r="C176" t="s">
         <v>85</v>
       </c>
+      <c r="D176" t="s">
+        <v>3</v>
+      </c>
       <c r="H176" t="s">
         <v>20</v>
       </c>
@@ -5050,7 +5089,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>14</v>
       </c>
@@ -5061,7 +5100,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="178" spans="1:13">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1</v>
       </c>
@@ -5071,6 +5110,9 @@
       <c r="C178" t="s">
         <v>86</v>
       </c>
+      <c r="D178" t="s">
+        <v>3</v>
+      </c>
       <c r="H178" t="s">
         <v>13</v>
       </c>
@@ -5081,7 +5123,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>14</v>
       </c>
@@ -5092,7 +5134,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>14</v>
       </c>
@@ -5103,7 +5145,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1</v>
       </c>
@@ -5129,7 +5171,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>14</v>
       </c>
@@ -5140,7 +5182,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1</v>
       </c>
@@ -5166,7 +5208,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1</v>
       </c>
@@ -5176,6 +5218,9 @@
       <c r="C184" t="s">
         <v>59</v>
       </c>
+      <c r="D184" t="s">
+        <v>3</v>
+      </c>
       <c r="G184" t="s">
         <v>6</v>
       </c>
@@ -5186,7 +5231,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>17</v>
       </c>
@@ -5200,7 +5245,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>14</v>
       </c>
@@ -5214,7 +5259,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1</v>
       </c>
@@ -5237,7 +5282,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>14</v>
       </c>
@@ -5248,7 +5293,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="189" spans="1:13">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1</v>
       </c>
@@ -5271,7 +5316,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="190" spans="1:13">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1</v>
       </c>
@@ -5281,6 +5326,9 @@
       <c r="C190" t="s">
         <v>76</v>
       </c>
+      <c r="D190" t="s">
+        <v>3</v>
+      </c>
       <c r="G190" t="s">
         <v>6</v>
       </c>
@@ -5294,7 +5342,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="191" spans="1:13">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>14</v>
       </c>
@@ -5305,7 +5353,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="192" spans="1:13">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>3</v>
       </c>
@@ -5319,7 +5367,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="193" spans="1:13">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>14</v>
       </c>
@@ -5330,7 +5378,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1</v>
       </c>
@@ -5340,6 +5388,9 @@
       <c r="C194" t="s">
         <v>59</v>
       </c>
+      <c r="D194" t="s">
+        <v>3</v>
+      </c>
       <c r="H194" t="s">
         <v>33</v>
       </c>
@@ -5350,7 +5401,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>14</v>
       </c>
@@ -5361,7 +5412,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1</v>
       </c>
@@ -5371,6 +5422,9 @@
       <c r="C196" t="s">
         <v>78</v>
       </c>
+      <c r="D196" t="s">
+        <v>3</v>
+      </c>
       <c r="I196" t="s">
         <v>15</v>
       </c>
@@ -5381,7 +5435,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>17</v>
       </c>
@@ -5395,7 +5449,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>17</v>
       </c>
@@ -5412,7 +5466,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1</v>
       </c>
@@ -5438,7 +5492,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="200" spans="1:13">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>14</v>
       </c>
@@ -5449,7 +5503,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1</v>
       </c>
@@ -5472,7 +5526,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>14</v>
       </c>
@@ -5483,7 +5537,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1</v>
       </c>
@@ -5506,7 +5560,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>14</v>
       </c>
@@ -5517,7 +5571,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="205" spans="1:13">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>14</v>
       </c>
@@ -5528,7 +5582,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1</v>
       </c>
@@ -5538,6 +5592,9 @@
       <c r="C206" t="s">
         <v>59</v>
       </c>
+      <c r="D206" t="s">
+        <v>3</v>
+      </c>
       <c r="H206" t="s">
         <v>17</v>
       </c>
@@ -5551,7 +5608,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1</v>
       </c>
@@ -5574,7 +5631,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="208" spans="1:13">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>14</v>
       </c>
@@ -5588,7 +5645,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="209" spans="1:13">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1</v>
       </c>
@@ -5611,7 +5668,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="210" spans="1:13">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>14</v>
       </c>
@@ -5622,7 +5679,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="211" spans="1:13">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>3</v>
       </c>
@@ -5639,7 +5696,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="212" spans="1:13">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>7</v>
       </c>
@@ -5656,7 +5713,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="213" spans="1:13">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>3</v>
       </c>
@@ -5670,7 +5727,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="214" spans="1:13">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>1</v>
       </c>
@@ -5680,6 +5737,9 @@
       <c r="C214" t="s">
         <v>27</v>
       </c>
+      <c r="D214" t="s">
+        <v>3</v>
+      </c>
       <c r="H214" t="s">
         <v>43</v>
       </c>
@@ -5690,7 +5750,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="215" spans="1:13">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>14</v>
       </c>
@@ -5701,7 +5761,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="216" spans="1:13">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>14</v>
       </c>
@@ -5712,7 +5772,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="217" spans="1:13">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1</v>
       </c>
@@ -5735,7 +5795,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="218" spans="1:13">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1</v>
       </c>
@@ -5745,6 +5805,9 @@
       <c r="C218" t="s">
         <v>59</v>
       </c>
+      <c r="D218" t="s">
+        <v>3</v>
+      </c>
       <c r="G218" t="s">
         <v>6</v>
       </c>
@@ -5761,7 +5824,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>14</v>
       </c>
@@ -5772,7 +5835,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="220" spans="1:13">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1</v>
       </c>
@@ -5782,6 +5845,9 @@
       <c r="C220" t="s">
         <v>89</v>
       </c>
+      <c r="D220" t="s">
+        <v>3</v>
+      </c>
       <c r="H220" t="s">
         <v>13</v>
       </c>
@@ -5792,7 +5858,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="221" spans="1:13">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>14</v>
       </c>
@@ -5803,7 +5869,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="222" spans="1:13">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>14</v>
       </c>
@@ -5814,7 +5880,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="223" spans="1:13">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1</v>
       </c>
@@ -5840,7 +5906,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="224" spans="1:13">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1</v>
       </c>
@@ -5850,6 +5916,9 @@
       <c r="C224" t="s">
         <v>76</v>
       </c>
+      <c r="D224" t="s">
+        <v>3</v>
+      </c>
       <c r="G224" t="s">
         <v>6</v>
       </c>
@@ -5866,7 +5935,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="225" spans="1:13">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>14</v>
       </c>
@@ -5877,7 +5946,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="226" spans="1:13">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>14</v>
       </c>
@@ -5888,7 +5957,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="227" spans="1:13">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1</v>
       </c>
@@ -5911,7 +5980,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="228" spans="1:13">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>14</v>
       </c>
@@ -5922,7 +5991,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="229" spans="1:13">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>3</v>
       </c>
@@ -5936,7 +6005,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="230" spans="1:13">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>1</v>
       </c>
@@ -5946,6 +6015,9 @@
       <c r="C230" t="s">
         <v>99</v>
       </c>
+      <c r="D230" t="s">
+        <v>3</v>
+      </c>
       <c r="H230" t="s">
         <v>24</v>
       </c>
@@ -5956,7 +6028,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="231" spans="1:13">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>14</v>
       </c>
@@ -5967,7 +6039,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="232" spans="1:13">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1</v>
       </c>
@@ -5977,6 +6049,9 @@
       <c r="C232" t="s">
         <v>131</v>
       </c>
+      <c r="D232" t="s">
+        <v>3</v>
+      </c>
       <c r="H232" t="s">
         <v>29</v>
       </c>
@@ -5987,7 +6062,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="233" spans="1:13">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>1</v>
       </c>
@@ -6013,7 +6088,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="234" spans="1:13">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>14</v>
       </c>
@@ -6024,7 +6099,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="235" spans="1:13">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>14</v>
       </c>
@@ -6035,7 +6110,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="236" spans="1:13">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1</v>
       </c>
@@ -6045,6 +6120,9 @@
       <c r="C236" t="s">
         <v>27</v>
       </c>
+      <c r="D236" t="s">
+        <v>3</v>
+      </c>
       <c r="H236" t="s">
         <v>151</v>
       </c>
@@ -6058,7 +6136,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="237" spans="1:13">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>14</v>
       </c>
@@ -6069,7 +6147,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="238" spans="1:13">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>7</v>
       </c>
@@ -6086,7 +6164,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="239" spans="1:13">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1</v>
       </c>
@@ -6109,7 +6187,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="240" spans="1:13">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>14</v>
       </c>
@@ -6120,7 +6198,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="241" spans="1:13">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>1</v>
       </c>
@@ -6143,7 +6221,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="242" spans="1:13">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>14</v>
       </c>
@@ -6154,7 +6232,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="243" spans="1:13">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>1</v>
       </c>
@@ -6180,7 +6258,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="244" spans="1:13">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>14</v>
       </c>
@@ -6191,7 +6269,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="245" spans="1:13">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>1</v>
       </c>
@@ -6214,7 +6292,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="246" spans="1:13">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>14</v>
       </c>
@@ -6225,7 +6303,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="247" spans="1:13">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>14</v>
       </c>
@@ -6236,7 +6314,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="248" spans="1:13">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1</v>
       </c>
@@ -6246,6 +6324,9 @@
       <c r="C248" t="s">
         <v>76</v>
       </c>
+      <c r="D248" t="s">
+        <v>3</v>
+      </c>
       <c r="H248" t="s">
         <v>43</v>
       </c>
@@ -6256,7 +6337,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="249" spans="1:13">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1</v>
       </c>
@@ -6282,7 +6363,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="250" spans="1:13">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>14</v>
       </c>
@@ -6293,7 +6374,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="251" spans="1:13">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>14</v>
       </c>
@@ -6304,7 +6385,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="252" spans="1:13">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>14</v>
       </c>
@@ -6315,7 +6396,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="253" spans="1:13">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1</v>
       </c>
@@ -6338,7 +6419,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="254" spans="1:13">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>14</v>
       </c>
@@ -6349,7 +6430,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="255" spans="1:13">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>1</v>
       </c>
@@ -6372,7 +6453,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="256" spans="1:13">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>1</v>
       </c>
@@ -6382,6 +6463,9 @@
       <c r="C256" t="s">
         <v>27</v>
       </c>
+      <c r="D256" t="s">
+        <v>3</v>
+      </c>
       <c r="G256" t="s">
         <v>6</v>
       </c>
@@ -6395,7 +6479,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="257" spans="1:13">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>14</v>
       </c>
@@ -6406,7 +6490,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="258" spans="1:13">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>14</v>
       </c>
@@ -6417,7 +6501,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="259" spans="1:13">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>3</v>
       </c>
@@ -6431,7 +6515,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="260" spans="1:13">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>14</v>
       </c>
@@ -6442,7 +6526,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="261" spans="1:13">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1</v>
       </c>
@@ -6468,7 +6552,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="262" spans="1:13">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>14</v>
       </c>
@@ -6479,7 +6563,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="263" spans="1:13">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>17</v>
       </c>
@@ -6496,7 +6580,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="264" spans="1:13">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>14</v>
       </c>
@@ -6507,7 +6591,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="265" spans="1:13">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>1</v>
       </c>
@@ -6530,7 +6614,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="266" spans="1:13">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>14</v>
       </c>
@@ -6541,7 +6625,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="267" spans="1:13">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1</v>
       </c>
@@ -6564,7 +6648,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="268" spans="1:13">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1</v>
       </c>
@@ -6574,6 +6658,9 @@
       <c r="C268" t="s">
         <v>27</v>
       </c>
+      <c r="D268" t="s">
+        <v>3</v>
+      </c>
       <c r="G268" t="s">
         <v>6</v>
       </c>
@@ -6590,7 +6677,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="269" spans="1:13">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>14</v>
       </c>
@@ -6601,7 +6688,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="270" spans="1:13">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>14</v>
       </c>
@@ -6615,7 +6702,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="271" spans="1:13">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1</v>
       </c>
@@ -6638,7 +6725,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="272" spans="1:13">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>14</v>
       </c>
@@ -6649,7 +6736,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="273" spans="1:13">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>1</v>
       </c>
@@ -6675,7 +6762,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="274" spans="1:13">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>1</v>
       </c>
@@ -6685,6 +6772,9 @@
       <c r="C274" t="s">
         <v>59</v>
       </c>
+      <c r="D274" t="s">
+        <v>3</v>
+      </c>
       <c r="G274" t="s">
         <v>6</v>
       </c>
@@ -6698,7 +6788,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="275" spans="1:13">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>14</v>
       </c>
@@ -6709,7 +6799,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="276" spans="1:13">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>3</v>
       </c>
@@ -6723,7 +6813,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="277" spans="1:13">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>14</v>
       </c>
@@ -6734,7 +6824,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="278" spans="1:13">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1</v>
       </c>
@@ -6744,6 +6834,9 @@
       <c r="C278" t="s">
         <v>76</v>
       </c>
+      <c r="D278" t="s">
+        <v>3</v>
+      </c>
       <c r="H278" t="s">
         <v>13</v>
       </c>
@@ -6754,7 +6847,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="279" spans="1:13">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>14</v>
       </c>
@@ -6765,7 +6858,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="280" spans="1:13">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1</v>
       </c>
@@ -6775,6 +6868,9 @@
       <c r="C280" t="s">
         <v>62</v>
       </c>
+      <c r="D280" t="s">
+        <v>3</v>
+      </c>
       <c r="H280" t="s">
         <v>40</v>
       </c>
@@ -6785,7 +6881,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="281" spans="1:13">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>14</v>
       </c>
@@ -6796,7 +6892,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="282" spans="1:13">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>14</v>
       </c>
@@ -6807,7 +6903,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="283" spans="1:13">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1</v>
       </c>
@@ -6833,7 +6929,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="284" spans="1:13">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1</v>
       </c>
@@ -6843,6 +6939,9 @@
       <c r="C284" t="s">
         <v>99</v>
       </c>
+      <c r="D284" t="s">
+        <v>3</v>
+      </c>
       <c r="G284" t="s">
         <v>6</v>
       </c>
@@ -6853,7 +6952,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="285" spans="1:13">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>17</v>
       </c>
@@ -6870,7 +6969,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="286" spans="1:13">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1</v>
       </c>
@@ -6880,6 +6979,9 @@
       <c r="C286" t="s">
         <v>27</v>
       </c>
+      <c r="D286" t="s">
+        <v>3</v>
+      </c>
       <c r="H286" t="s">
         <v>151</v>
       </c>
@@ -6893,7 +6995,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="287" spans="1:13">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>14</v>
       </c>
@@ -6904,7 +7006,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="288" spans="1:13">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>17</v>
       </c>
@@ -6921,7 +7023,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="289" spans="1:13">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>14</v>
       </c>
@@ -6932,7 +7034,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="290" spans="1:13">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>1</v>
       </c>
@@ -6942,6 +7044,9 @@
       <c r="C290" t="s">
         <v>85</v>
       </c>
+      <c r="D290" t="s">
+        <v>3</v>
+      </c>
       <c r="H290" t="s">
         <v>46</v>
       </c>
@@ -6952,7 +7057,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="291" spans="1:13">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1</v>
       </c>
@@ -6975,7 +7080,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="292" spans="1:13">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>14</v>
       </c>
@@ -6986,7 +7091,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="293" spans="1:13">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>1</v>
       </c>
@@ -7012,7 +7117,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="294" spans="1:13">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>14</v>
       </c>
@@ -7023,7 +7128,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="295" spans="1:13">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>14</v>
       </c>
@@ -7037,7 +7142,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="296" spans="1:13">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>1</v>
       </c>
@@ -7047,6 +7152,9 @@
       <c r="C296" t="s">
         <v>39</v>
       </c>
+      <c r="D296" t="s">
+        <v>3</v>
+      </c>
       <c r="I296" t="s">
         <v>15</v>
       </c>
@@ -7054,7 +7162,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="297" spans="1:13">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>17</v>
       </c>
@@ -7068,7 +7176,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="298" spans="1:13">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>1</v>
       </c>
@@ -7078,6 +7186,9 @@
       <c r="C298" t="s">
         <v>59</v>
       </c>
+      <c r="D298" t="s">
+        <v>3</v>
+      </c>
       <c r="H298" t="s">
         <v>151</v>
       </c>
@@ -7091,7 +7202,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="299" spans="1:13">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>1</v>
       </c>
@@ -7114,7 +7225,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="300" spans="1:13">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>14</v>
       </c>
@@ -7125,7 +7236,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="301" spans="1:13">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>14</v>
       </c>
@@ -7136,7 +7247,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="302" spans="1:13">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1</v>
       </c>
@@ -7146,6 +7257,9 @@
       <c r="C302" t="s">
         <v>27</v>
       </c>
+      <c r="D302" t="s">
+        <v>3</v>
+      </c>
       <c r="H302" t="s">
         <v>20</v>
       </c>
@@ -7156,7 +7270,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="303" spans="1:13">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>14</v>
       </c>
@@ -7167,7 +7281,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="304" spans="1:13">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>1</v>
       </c>
@@ -7177,6 +7291,9 @@
       <c r="C304" t="s">
         <v>76</v>
       </c>
+      <c r="D304" t="s">
+        <v>3</v>
+      </c>
       <c r="H304" t="s">
         <v>13</v>
       </c>
@@ -7187,7 +7304,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="305" spans="1:13">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>1</v>
       </c>
@@ -7213,7 +7330,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="306" spans="1:13">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>17</v>
       </c>
@@ -7227,7 +7344,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="307" spans="1:13">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>14</v>
       </c>
@@ -7238,7 +7355,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="308" spans="1:13">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1</v>
       </c>
@@ -7248,6 +7365,9 @@
       <c r="C308" t="s">
         <v>78</v>
       </c>
+      <c r="D308" t="s">
+        <v>3</v>
+      </c>
       <c r="H308" t="s">
         <v>17</v>
       </c>
@@ -7258,7 +7378,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="309" spans="1:13">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>14</v>
       </c>
@@ -7269,7 +7389,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="310" spans="1:13">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>1</v>
       </c>
@@ -7279,6 +7399,9 @@
       <c r="C310" t="s">
         <v>27</v>
       </c>
+      <c r="D310" t="s">
+        <v>3</v>
+      </c>
       <c r="I310" t="s">
         <v>15</v>
       </c>
@@ -7289,7 +7412,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="311" spans="1:13">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>17</v>
       </c>
@@ -7306,7 +7429,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="312" spans="1:13">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>3</v>
       </c>
@@ -7320,7 +7443,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="313" spans="1:13">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>14</v>
       </c>
@@ -7331,7 +7454,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="314" spans="1:13">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>1</v>
       </c>
@@ -7341,6 +7464,9 @@
       <c r="C314" t="s">
         <v>27</v>
       </c>
+      <c r="D314" t="s">
+        <v>3</v>
+      </c>
       <c r="H314" t="s">
         <v>24</v>
       </c>
@@ -7351,7 +7477,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="315" spans="1:13">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>1</v>
       </c>
@@ -7374,7 +7500,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="316" spans="1:13">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>14</v>
       </c>
@@ -7385,7 +7511,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="317" spans="1:13">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>1</v>
       </c>
@@ -7408,7 +7534,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="318" spans="1:13">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>14</v>
       </c>
@@ -7419,7 +7545,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="319" spans="1:13">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>14</v>
       </c>
@@ -7430,7 +7556,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="320" spans="1:13">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>1</v>
       </c>
@@ -7440,6 +7566,9 @@
       <c r="C320" t="s">
         <v>85</v>
       </c>
+      <c r="D320" t="s">
+        <v>3</v>
+      </c>
       <c r="H320" t="s">
         <v>13</v>
       </c>
@@ -7453,7 +7582,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="321" spans="1:13">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>1</v>
       </c>
@@ -7473,7 +7602,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="322" spans="1:13">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>17</v>
       </c>
@@ -7487,7 +7616,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="323" spans="1:13">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>1</v>
       </c>
@@ -7513,7 +7642,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="324" spans="1:13">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>14</v>
       </c>
@@ -7524,7 +7653,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="325" spans="1:13">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>17</v>
       </c>
@@ -7541,7 +7670,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="326" spans="1:13">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>14</v>
       </c>
@@ -7552,7 +7681,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="327" spans="1:13">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>1</v>
       </c>
@@ -7575,7 +7704,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="328" spans="1:13">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>14</v>
       </c>
@@ -7586,7 +7715,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="329" spans="1:13">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>1</v>
       </c>
@@ -7609,7 +7738,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="330" spans="1:13">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>1</v>
       </c>
@@ -7619,6 +7748,9 @@
       <c r="C330" t="s">
         <v>89</v>
       </c>
+      <c r="D330" t="s">
+        <v>3</v>
+      </c>
       <c r="G330" t="s">
         <v>6</v>
       </c>
@@ -7635,7 +7767,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="331" spans="1:13">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>14</v>
       </c>
@@ -7646,7 +7778,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="332" spans="1:13">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>14</v>
       </c>
@@ -7657,7 +7789,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="333" spans="1:13">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>1</v>
       </c>
@@ -7677,7 +7809,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="334" spans="1:13">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>17</v>
       </c>
@@ -7691,7 +7823,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="335" spans="1:13">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>1</v>
       </c>
@@ -7717,7 +7849,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="336" spans="1:13">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>1</v>
       </c>
@@ -7727,6 +7859,9 @@
       <c r="C336" t="s">
         <v>62</v>
       </c>
+      <c r="D336" t="s">
+        <v>3</v>
+      </c>
       <c r="G336" t="s">
         <v>6</v>
       </c>
@@ -7743,7 +7878,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="337" spans="1:12">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>14</v>
       </c>
@@ -7754,7 +7889,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="338" spans="1:12">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>14</v>
       </c>
@@ -7765,7 +7900,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="339" spans="1:12">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>1</v>
       </c>
@@ -7788,7 +7923,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="340" spans="1:12">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>14</v>
       </c>
@@ -7799,7 +7934,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="341" spans="1:12">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>1</v>
       </c>
@@ -7822,7 +7957,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="342" spans="1:12">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>14</v>
       </c>
